--- a/biology/Médecine/René_Truhaut/René_Truhaut.xlsx
+++ b/biology/Médecine/René_Truhaut/René_Truhaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Truhaut</t>
+          <t>René_Truhaut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Truhaut est un toxicologue français né le 23 mai 1909 à Pouzauges et mort le 10 mai 1994 à Paris. Il a été titulaire de la chaire de toxicologie de la Faculté de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Truhaut</t>
+          <t>René_Truhaut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Truhaut fit ses études secondaires à La Roche-sur-Yon en Vendée, puis vint à Paris pour devenir pharmacien en 1931. Il devint par la suite licencié ès Sciences en 1932. Il fut reçu premier à l’Internat des Hôpitaux psychiatriques de la Seine en janvier 1929 et choisit l’hôpital Paul-Brousse de Villejuif. Il fut alors remarqué comme un des pionniers de la cancérologie française, le professeur Charles Sannié qui le nomma chef du Laboratoire de l’Institut du Cancer – le futur Institut Gustave-Roussy – qui venait d’être créé. Par la suite, une fois reçu major de l’internat en pharmacie des Hôpitaux de Paris, il fut remarqué et apprécié par un des fondateurs de la toxicologie moderne : le doyen René Fabre. Puis il fut nommé pharmacien – chef des Hôpitaux psychiatriques de la Seine[réf. nécessaire]. Il succéda alors à Charles Sannié dans les fonctions de chef du Département de chimie et de physique du cancer. En 1947, il soutint sa thèse de doctorat d’état en pharmacie intitulé : « Contribution à l’étude des cancérogènes endogènes ». Il fut alors nommé chef de travaux pratiques, puis professeur agrégé de toxicologie en 1948. En 1952, il soutint un doctorat ès sciences naturelles sur la biologie et la toxicologie du thallium. En 1960, il succéda à René Fabre comme professeur titulaire de la Chaire de toxicologie, poste qu’il occupa jusqu’en 1978, date de son départ à la retraite.
 À partir des années 1950, il figurera dans les grandes instances nationales (Conseil supérieur d'hygiène publique de France, Commission Nationale des Toxiques en Agriculture qu'il présidera) et dans les instances internationales les plus prestigieuses : Commission Internationale Permanente des Maladies Professionnelles, Bureau international du travail, OMS (surtout le fameux Comité d'Experts FAO/OMS), nombreux comités scientifiques des Communautés européennes dont le Comité sur l'écotoxicité et la toxicité des produits chimiques qu'il présidera, Union Internationale contre le Cancer, Union internationale de chimie pure et appliquée (IUPAC), etc.
-Concepts principaux
-René Truhaut est principalement connu pour avoir introduit le concept de dose journalière admissible en 1956, et pour avoir développé l’écotoxicologie.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Truhaut</t>
+          <t>René_Truhaut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Concepts principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Truhaut est principalement connu pour avoir introduit le concept de dose journalière admissible en 1956, et pour avoir développé l’écotoxicologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Truhaut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Truhaut</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Récompenses nationales et internationales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yant Award de l’American Association of Industrial Hygiene, 1978
 Médaille d’or de l’OMS, 1981
@@ -560,31 +611,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Truhaut</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Truhaut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Truhaut</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>René Truhaut a rédigé un Précis de médecine du travail plusieurs fois réédité et devenu un classique de cette discipline et une centaine d’articles dans les plus grandes revues scientifiques. Voici la liste de ses principales publications :
 Truhaut René-Charles-Joseph, Les Dérivés organiques halogénés doués d’activité insecticide, Paris, S.E.D.E.S, 1948
